--- a/Data_clean/MCAS/Estados_US/Edos_USA_2016/ARIZONA_2016.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2016/ARIZONA_2016.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1251"/>
+  <dimension ref="A1:D1245"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -439,7 +439,7 @@
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C6">
@@ -452,7 +452,7 @@
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C7">
@@ -465,7 +465,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>San Francisco de los Romo</t>
+          <t>San Francisco De Los Romo</t>
         </is>
       </c>
       <c r="C8">
@@ -625,7 +625,7 @@
         <v>11</v>
       </c>
       <c r="D19">
-        <v>0.0009477856281233845</v>
+        <v>0.0009477856281233844</v>
       </c>
     </row>
     <row r="20">
@@ -745,7 +745,7 @@
     <row r="28">
       <c r="B28" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C28">
@@ -784,7 +784,7 @@
     <row r="31">
       <c r="B31" t="inlineStr">
         <is>
-          <t>Bejucal de Ocampo</t>
+          <t>Bejucal De Ocampo</t>
         </is>
       </c>
       <c r="C31">
@@ -849,7 +849,7 @@
     <row r="36">
       <c r="B36" t="inlineStr">
         <is>
-          <t>Chiapa de Corzo</t>
+          <t>Chiapa De Corzo</t>
         </is>
       </c>
       <c r="C36">
@@ -888,7 +888,7 @@
     <row r="39">
       <c r="B39" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C39">
@@ -1096,7 +1096,7 @@
     <row r="55">
       <c r="B55" t="inlineStr">
         <is>
-          <t>Ocozocoautla de Espinosa</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C55">
@@ -1161,7 +1161,7 @@
     <row r="60">
       <c r="B60" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C60">
@@ -1699,7 +1699,7 @@
     <row r="101">
       <c r="B101" t="inlineStr">
         <is>
-          <t>Guadalupe y Calvo</t>
+          <t>Guadalupe Y Calvo</t>
         </is>
       </c>
       <c r="C101">
@@ -1738,7 +1738,7 @@
     <row r="104">
       <c r="B104" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C104">
@@ -1927,7 +1927,7 @@
         <v>106</v>
       </c>
       <c r="D118">
-        <v>0.009133206961916249</v>
+        <v>0.009133206961916248</v>
       </c>
     </row>
     <row r="119">
@@ -2011,7 +2011,7 @@
     <row r="125">
       <c r="B125" t="inlineStr">
         <is>
-          <t>San Francisco de Borja</t>
+          <t>San Francisco De Borja</t>
         </is>
       </c>
       <c r="C125">
@@ -2024,7 +2024,7 @@
     <row r="126">
       <c r="B126" t="inlineStr">
         <is>
-          <t>San Francisco de Conchos</t>
+          <t>San Francisco De Conchos</t>
         </is>
       </c>
       <c r="C126">
@@ -2037,7 +2037,7 @@
     <row r="127">
       <c r="B127" t="inlineStr">
         <is>
-          <t>San Francisco del Oro</t>
+          <t>San Francisco Del Oro</t>
         </is>
       </c>
       <c r="C127">
@@ -2141,7 +2141,7 @@
     <row r="135">
       <c r="B135" t="inlineStr">
         <is>
-          <t>Valle de Zaragoza</t>
+          <t>Valle De Zaragoza</t>
         </is>
       </c>
       <c r="C135">
@@ -2424,7 +2424,7 @@
     <row r="156">
       <c r="B156" t="inlineStr">
         <is>
-          <t>Villa de Álvarez</t>
+          <t>Villa De Álvarez</t>
         </is>
       </c>
       <c r="C156">
@@ -2450,7 +2450,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -2694,7 +2694,7 @@
     <row r="176">
       <c r="B176" t="inlineStr">
         <is>
-          <t>Coneto de Comonfort</t>
+          <t>Coneto De Comonfort</t>
         </is>
       </c>
       <c r="C176">
@@ -2863,7 +2863,7 @@
     <row r="189">
       <c r="B189" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C189">
@@ -2915,7 +2915,7 @@
     <row r="193">
       <c r="B193" t="inlineStr">
         <is>
-          <t>Pánuco de Coronado</t>
+          <t>Pánuco De Coronado</t>
         </is>
       </c>
       <c r="C193">
@@ -2961,7 +2961,7 @@
         <v>11</v>
       </c>
       <c r="D196">
-        <v>0.0009477856281233845</v>
+        <v>0.0009477856281233844</v>
       </c>
     </row>
     <row r="197">
@@ -2993,7 +2993,7 @@
     <row r="199">
       <c r="B199" t="inlineStr">
         <is>
-          <t>San Juan de Guadalupe</t>
+          <t>San Juan De Guadalupe</t>
         </is>
       </c>
       <c r="C199">
@@ -3006,7 +3006,7 @@
     <row r="200">
       <c r="B200" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C200">
@@ -3019,7 +3019,7 @@
     <row r="201">
       <c r="B201" t="inlineStr">
         <is>
-          <t>San Pedro del Gallo</t>
+          <t>San Pedro Del Gallo</t>
         </is>
       </c>
       <c r="C201">
@@ -3149,12 +3149,12 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C211">
@@ -3193,7 +3193,7 @@
     <row r="214">
       <c r="B214" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C214">
@@ -3206,7 +3206,7 @@
     <row r="215">
       <c r="B215" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C215">
@@ -3284,7 +3284,7 @@
     <row r="221">
       <c r="B221" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C221">
@@ -3362,7 +3362,7 @@
     <row r="227">
       <c r="B227" t="inlineStr">
         <is>
-          <t>Chapa de Mota</t>
+          <t>Chapa De Mota</t>
         </is>
       </c>
       <c r="C227">
@@ -3401,7 +3401,7 @@
     <row r="230">
       <c r="B230" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C230">
@@ -3479,7 +3479,7 @@
     <row r="236">
       <c r="B236" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C236">
@@ -3505,7 +3505,7 @@
     <row r="238">
       <c r="B238" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C238">
@@ -3518,7 +3518,7 @@
     <row r="239">
       <c r="B239" t="inlineStr">
         <is>
-          <t>Ixtapan del Oro</t>
+          <t>Ixtapan Del Oro</t>
         </is>
       </c>
       <c r="C239">
@@ -3596,7 +3596,7 @@
     <row r="245">
       <c r="B245" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C245">
@@ -3674,7 +3674,7 @@
     <row r="251">
       <c r="B251" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C251">
@@ -3804,7 +3804,7 @@
     <row r="261">
       <c r="B261" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C261">
@@ -3921,7 +3921,7 @@
     <row r="270">
       <c r="B270" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C270">
@@ -3986,7 +3986,7 @@
     <row r="275">
       <c r="B275" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C275">
@@ -3999,7 +3999,7 @@
     <row r="276">
       <c r="B276" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C276">
@@ -4012,7 +4012,7 @@
     <row r="277">
       <c r="B277" t="inlineStr">
         <is>
-          <t>Villa del Carbón</t>
+          <t>Villa Del Carbón</t>
         </is>
       </c>
       <c r="C277">
@@ -4147,7 +4147,7 @@
     <row r="287">
       <c r="B287" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C287">
@@ -4160,7 +4160,7 @@
     <row r="288">
       <c r="B288" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C288">
@@ -4173,7 +4173,7 @@
     <row r="289">
       <c r="B289" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C289">
@@ -4206,7 +4206,7 @@
         <v>11</v>
       </c>
       <c r="D291">
-        <v>0.0009477856281233845</v>
+        <v>0.0009477856281233844</v>
       </c>
     </row>
     <row r="292">
@@ -4277,7 +4277,7 @@
     <row r="297">
       <c r="B297" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C297">
@@ -4329,7 +4329,7 @@
     <row r="301">
       <c r="B301" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C301">
@@ -4433,7 +4433,7 @@
     <row r="309">
       <c r="B309" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C309">
@@ -4485,7 +4485,7 @@
     <row r="313">
       <c r="B313" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C313">
@@ -4511,7 +4511,7 @@
     <row r="315">
       <c r="B315" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C315">
@@ -4537,7 +4537,7 @@
     <row r="317">
       <c r="B317" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C317">
@@ -4563,7 +4563,7 @@
     <row r="319">
       <c r="B319" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C319">
@@ -4602,7 +4602,7 @@
     <row r="322">
       <c r="B322" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C322">
@@ -4685,7 +4685,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C328">
@@ -4724,7 +4724,7 @@
     <row r="331">
       <c r="B331" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C331">
@@ -4737,7 +4737,7 @@
     <row r="332">
       <c r="B332" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C332">
@@ -4770,13 +4770,13 @@
         <v>11</v>
       </c>
       <c r="D334">
-        <v>0.0009477856281233845</v>
+        <v>0.0009477856281233844</v>
       </c>
     </row>
     <row r="335">
       <c r="B335" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C335">
@@ -4802,7 +4802,7 @@
     <row r="337">
       <c r="B337" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C337">
@@ -4815,7 +4815,7 @@
     <row r="338">
       <c r="B338" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C338">
@@ -4854,7 +4854,7 @@
     <row r="341">
       <c r="B341" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C341">
@@ -4867,7 +4867,7 @@
     <row r="342">
       <c r="B342" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C342">
@@ -4932,7 +4932,7 @@
     <row r="347">
       <c r="B347" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C347">
@@ -4945,7 +4945,7 @@
     <row r="348">
       <c r="B348" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C348">
@@ -4997,7 +4997,7 @@
     <row r="352">
       <c r="B352" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C352">
@@ -5010,7 +5010,7 @@
     <row r="353">
       <c r="B353" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C353">
@@ -5075,20 +5075,20 @@
     <row r="358">
       <c r="B358" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C358">
         <v>11</v>
       </c>
       <c r="D358">
-        <v>0.0009477856281233845</v>
+        <v>0.0009477856281233844</v>
       </c>
     </row>
     <row r="359">
       <c r="B359" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C359">
@@ -5114,20 +5114,20 @@
     <row r="361">
       <c r="B361" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C361">
         <v>11</v>
       </c>
       <c r="D361">
-        <v>0.0009477856281233845</v>
+        <v>0.0009477856281233844</v>
       </c>
     </row>
     <row r="362">
       <c r="B362" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C362">
@@ -5153,7 +5153,7 @@
     <row r="364">
       <c r="B364" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C364">
@@ -5179,7 +5179,7 @@
     <row r="366">
       <c r="B366" t="inlineStr">
         <is>
-          <t>Mártir de Cuilapan</t>
+          <t>Mártir De Cuilapan</t>
         </is>
       </c>
       <c r="C366">
@@ -5335,7 +5335,7 @@
     <row r="378">
       <c r="B378" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C378">
@@ -5361,7 +5361,7 @@
     <row r="380">
       <c r="B380" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C380">
@@ -5387,7 +5387,7 @@
     <row r="382">
       <c r="B382" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C382">
@@ -5413,7 +5413,7 @@
     <row r="384">
       <c r="B384" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C384">
@@ -5465,7 +5465,7 @@
     <row r="388">
       <c r="B388" t="inlineStr">
         <is>
-          <t>Tlalixtaquilla de Maldonado</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C388">
@@ -5478,7 +5478,7 @@
     <row r="389">
       <c r="B389" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C389">
@@ -5613,7 +5613,7 @@
     <row r="399">
       <c r="B399" t="inlineStr">
         <is>
-          <t>Agua Blanca de Iturbide</t>
+          <t>Agua Blanca De Iturbide</t>
         </is>
       </c>
       <c r="C399">
@@ -5665,14 +5665,14 @@
     <row r="403">
       <c r="B403" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C403">
         <v>11</v>
       </c>
       <c r="D403">
-        <v>0.0009477856281233845</v>
+        <v>0.0009477856281233844</v>
       </c>
     </row>
     <row r="404">
@@ -5717,7 +5717,7 @@
     <row r="407">
       <c r="B407" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C407">
@@ -5769,7 +5769,7 @@
     <row r="411">
       <c r="B411" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C411">
@@ -5795,7 +5795,7 @@
     <row r="413">
       <c r="B413" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C413">
@@ -5899,7 +5899,7 @@
     <row r="421">
       <c r="B421" t="inlineStr">
         <is>
-          <t>Mineral del Monte</t>
+          <t>Mineral Del Monte</t>
         </is>
       </c>
       <c r="C421">
@@ -5912,7 +5912,7 @@
     <row r="422">
       <c r="B422" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C422">
@@ -5925,7 +5925,7 @@
     <row r="423">
       <c r="B423" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C423">
@@ -5951,7 +5951,7 @@
     <row r="425">
       <c r="B425" t="inlineStr">
         <is>
-          <t>Omitlán de Juárez</t>
+          <t>Omitlán De Juárez</t>
         </is>
       </c>
       <c r="C425">
@@ -5964,7 +5964,7 @@
     <row r="426">
       <c r="B426" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C426">
@@ -5990,7 +5990,7 @@
     <row r="428">
       <c r="B428" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C428">
@@ -6068,7 +6068,7 @@
     <row r="434">
       <c r="B434" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C434">
@@ -6094,7 +6094,7 @@
     <row r="436">
       <c r="B436" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C436">
@@ -6133,7 +6133,7 @@
     <row r="439">
       <c r="B439" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C439">
@@ -6159,7 +6159,7 @@
     <row r="441">
       <c r="B441" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C441">
@@ -6172,7 +6172,7 @@
     <row r="442">
       <c r="B442" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C442">
@@ -6211,7 +6211,7 @@
     <row r="445">
       <c r="B445" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C445">
@@ -6224,7 +6224,7 @@
     <row r="446">
       <c r="B446" t="inlineStr">
         <is>
-          <t>Zapotlán de Juárez</t>
+          <t>Zapotlán De Juárez</t>
         </is>
       </c>
       <c r="C446">
@@ -6281,7 +6281,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>Acatlán de Juárez</t>
+          <t>Acatlán De Juárez</t>
         </is>
       </c>
       <c r="C450">
@@ -6294,7 +6294,7 @@
     <row r="451">
       <c r="B451" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C451">
@@ -6372,7 +6372,7 @@
     <row r="457">
       <c r="B457" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C457">
@@ -6398,7 +6398,7 @@
     <row r="459">
       <c r="B459" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C459">
@@ -6554,7 +6554,7 @@
     <row r="471">
       <c r="B471" t="inlineStr">
         <is>
-          <t>Cuautitlán de García Barragán</t>
+          <t>Cuautitlán De García Barragán</t>
         </is>
       </c>
       <c r="C471">
@@ -6645,7 +6645,7 @@
     <row r="478">
       <c r="B478" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C478">
@@ -6723,7 +6723,7 @@
     <row r="484">
       <c r="B484" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C484">
@@ -6736,7 +6736,7 @@
     <row r="485">
       <c r="B485" t="inlineStr">
         <is>
-          <t>Ixtlahuacán de los Membrillos</t>
+          <t>Ixtlahuacán De Los Membrillos</t>
         </is>
       </c>
       <c r="C485">
@@ -6749,7 +6749,7 @@
     <row r="486">
       <c r="B486" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C486">
@@ -6801,7 +6801,7 @@
     <row r="490">
       <c r="B490" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C490">
@@ -6879,7 +6879,7 @@
     <row r="496">
       <c r="B496" t="inlineStr">
         <is>
-          <t>La Manzanilla de la Paz</t>
+          <t>La Manzanilla De La Paz</t>
         </is>
       </c>
       <c r="C496">
@@ -6892,7 +6892,7 @@
     <row r="497">
       <c r="B497" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C497">
@@ -6990,7 +6990,7 @@
         <v>11</v>
       </c>
       <c r="D504">
-        <v>0.0009477856281233845</v>
+        <v>0.0009477856281233844</v>
       </c>
     </row>
     <row r="505">
@@ -7035,7 +7035,7 @@
     <row r="508">
       <c r="B508" t="inlineStr">
         <is>
-          <t>San Diego de Alejandría</t>
+          <t>San Diego De Alejandría</t>
         </is>
       </c>
       <c r="C508">
@@ -7061,7 +7061,7 @@
     <row r="510">
       <c r="B510" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C510">
@@ -7087,7 +7087,7 @@
     <row r="512">
       <c r="B512" t="inlineStr">
         <is>
-          <t>San Martín de Bolaños</t>
+          <t>San Martín De Bolaños</t>
         </is>
       </c>
       <c r="C512">
@@ -7100,7 +7100,7 @@
     <row r="513">
       <c r="B513" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C513">
@@ -7113,7 +7113,7 @@
     <row r="514">
       <c r="B514" t="inlineStr">
         <is>
-          <t>San Sebastián del Oeste</t>
+          <t>San Sebastián Del Oeste</t>
         </is>
       </c>
       <c r="C514">
@@ -7126,7 +7126,7 @@
     <row r="515">
       <c r="B515" t="inlineStr">
         <is>
-          <t>Santa María de los Ángeles</t>
+          <t>Santa María De Los Ángeles</t>
         </is>
       </c>
       <c r="C515">
@@ -7165,7 +7165,7 @@
     <row r="518">
       <c r="B518" t="inlineStr">
         <is>
-          <t>Talpa de Allende</t>
+          <t>Talpa De Allende</t>
         </is>
       </c>
       <c r="C518">
@@ -7178,7 +7178,7 @@
     <row r="519">
       <c r="B519" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C519">
@@ -7243,7 +7243,7 @@
     <row r="524">
       <c r="B524" t="inlineStr">
         <is>
-          <t>Teocuitatlán de Corona</t>
+          <t>Teocuitatlán De Corona</t>
         </is>
       </c>
       <c r="C524">
@@ -7256,7 +7256,7 @@
     <row r="525">
       <c r="B525" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C525">
@@ -7282,7 +7282,7 @@
     <row r="527">
       <c r="B527" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C527">
@@ -7295,7 +7295,7 @@
     <row r="528">
       <c r="B528" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C528">
@@ -7412,7 +7412,7 @@
     <row r="537">
       <c r="B537" t="inlineStr">
         <is>
-          <t>Valle de Guadalupe</t>
+          <t>Valle De Guadalupe</t>
         </is>
       </c>
       <c r="C537">
@@ -7477,7 +7477,7 @@
     <row r="542">
       <c r="B542" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C542">
@@ -7490,7 +7490,7 @@
     <row r="543">
       <c r="B543" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C543">
@@ -7516,7 +7516,7 @@
     <row r="545">
       <c r="B545" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C545">
@@ -7536,7 +7536,7 @@
         <v>11</v>
       </c>
       <c r="D546">
-        <v>0.0009477856281233845</v>
+        <v>0.0009477856281233844</v>
       </c>
     </row>
     <row r="547">
@@ -7781,7 +7781,7 @@
     <row r="565">
       <c r="B565" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C565">
@@ -7807,7 +7807,7 @@
     <row r="567">
       <c r="B567" t="inlineStr">
         <is>
-          <t>Cojumatlán de Régules</t>
+          <t>Cojumatlán De Régules</t>
         </is>
       </c>
       <c r="C567">
@@ -8009,7 +8009,7 @@
         <v>11</v>
       </c>
       <c r="D582">
-        <v>0.0009477856281233845</v>
+        <v>0.0009477856281233844</v>
       </c>
     </row>
     <row r="583">
@@ -8100,7 +8100,7 @@
         <v>11</v>
       </c>
       <c r="D589">
-        <v>0.0009477856281233845</v>
+        <v>0.0009477856281233844</v>
       </c>
     </row>
     <row r="590">
@@ -8561,7 +8561,7 @@
     <row r="625">
       <c r="B625" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C625">
@@ -8826,7 +8826,7 @@
     <row r="645">
       <c r="B645" t="inlineStr">
         <is>
-          <t>Coatlán del Río</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C645">
@@ -8846,7 +8846,7 @@
         <v>11</v>
       </c>
       <c r="D646">
-        <v>0.0009477856281233845</v>
+        <v>0.0009477856281233844</v>
       </c>
     </row>
     <row r="647">
@@ -8956,7 +8956,7 @@
     <row r="655">
       <c r="B655" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C655">
@@ -9021,7 +9021,7 @@
     <row r="660">
       <c r="B660" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C660">
@@ -9034,7 +9034,7 @@
     <row r="661">
       <c r="B661" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C661">
@@ -9125,7 +9125,7 @@
     <row r="668">
       <c r="B668" t="inlineStr">
         <is>
-          <t>Zacualpan de Amilpas</t>
+          <t>Zacualpan De Amilpas</t>
         </is>
       </c>
       <c r="C668">
@@ -9182,7 +9182,7 @@
     <row r="672">
       <c r="B672" t="inlineStr">
         <is>
-          <t>Amatlán de Cañas</t>
+          <t>Amatlán De Cañas</t>
         </is>
       </c>
       <c r="C672">
@@ -9234,7 +9234,7 @@
     <row r="676">
       <c r="B676" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C676">
@@ -9280,7 +9280,7 @@
         <v>11</v>
       </c>
       <c r="D679">
-        <v>0.0009477856281233845</v>
+        <v>0.0009477856281233844</v>
       </c>
     </row>
     <row r="680">
@@ -9325,7 +9325,7 @@
     <row r="683">
       <c r="B683" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C683">
@@ -9499,7 +9499,7 @@
     <row r="696">
       <c r="B696" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C696">
@@ -9543,7 +9543,7 @@
     <row r="699">
       <c r="B699" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C699">
@@ -9608,7 +9608,7 @@
     <row r="704">
       <c r="B704" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C704">
@@ -9634,7 +9634,7 @@
     <row r="706">
       <c r="B706" t="inlineStr">
         <is>
-          <t>Coicoyán de las Flores</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C706">
@@ -9647,7 +9647,7 @@
     <row r="707">
       <c r="B707" t="inlineStr">
         <is>
-          <t>Cuilápam de Guerrero</t>
+          <t>Cuilápam De Guerrero</t>
         </is>
       </c>
       <c r="C707">
@@ -9660,7 +9660,7 @@
     <row r="708">
       <c r="B708" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C708">
@@ -9673,7 +9673,7 @@
     <row r="709">
       <c r="B709" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C709">
@@ -9686,7 +9686,7 @@
     <row r="710">
       <c r="B710" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C710">
@@ -9699,7 +9699,7 @@
     <row r="711">
       <c r="B711" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C711">
@@ -9712,7 +9712,7 @@
     <row r="712">
       <c r="B712" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C712">
@@ -9816,7 +9816,7 @@
     <row r="720">
       <c r="B720" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C720">
@@ -9829,7 +9829,7 @@
     <row r="721">
       <c r="B721" t="inlineStr">
         <is>
-          <t>Nejapa de Madero</t>
+          <t>Nejapa De Madero</t>
         </is>
       </c>
       <c r="C721">
@@ -9842,7 +9842,7 @@
     <row r="722">
       <c r="B722" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C722">
@@ -9855,7 +9855,7 @@
     <row r="723">
       <c r="B723" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C723">
@@ -9868,7 +9868,7 @@
     <row r="724">
       <c r="B724" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C724">
@@ -9907,7 +9907,7 @@
     <row r="727">
       <c r="B727" t="inlineStr">
         <is>
-          <t>San Agustín de las Juntas</t>
+          <t>San Agustín De Las Juntas</t>
         </is>
       </c>
       <c r="C727">
@@ -10297,7 +10297,7 @@
     <row r="757">
       <c r="B757" t="inlineStr">
         <is>
-          <t>San Mateo del Mar</t>
+          <t>San Mateo Del Mar</t>
         </is>
       </c>
       <c r="C757">
@@ -10349,7 +10349,7 @@
     <row r="761">
       <c r="B761" t="inlineStr">
         <is>
-          <t>San Pablo Villa de Mitla</t>
+          <t>San Pablo Villa De Mitla</t>
         </is>
       </c>
       <c r="C761">
@@ -10375,7 +10375,7 @@
     <row r="763">
       <c r="B763" t="inlineStr">
         <is>
-          <t>San Pedro el Alto</t>
+          <t>San Pedro El Alto</t>
         </is>
       </c>
       <c r="C763">
@@ -10609,7 +10609,7 @@
     <row r="781">
       <c r="B781" t="inlineStr">
         <is>
-          <t>Santa María del Tule</t>
+          <t>Santa María Del Tule</t>
         </is>
       </c>
       <c r="C781">
@@ -10687,7 +10687,7 @@
     <row r="787">
       <c r="B787" t="inlineStr">
         <is>
-          <t>Santa María Jalapa del Marqués</t>
+          <t>Santa María Jalapa Del Marqués</t>
         </is>
       </c>
       <c r="C787">
@@ -11012,7 +11012,7 @@
     <row r="812">
       <c r="B812" t="inlineStr">
         <is>
-          <t>Heroica Villa Tezoatlán de Segura y Luna, Cuna de la Independencia de Oaxaca</t>
+          <t>Heroica Villa Tezoatlán De Segura Y Luna, Cuna De La Independencia De Oaxaca</t>
         </is>
       </c>
       <c r="C812">
@@ -11025,7 +11025,7 @@
     <row r="813">
       <c r="B813" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C813">
@@ -11038,7 +11038,7 @@
     <row r="814">
       <c r="B814" t="inlineStr">
         <is>
-          <t>Villa de Tututepec</t>
+          <t>Villa De Tututepec</t>
         </is>
       </c>
       <c r="C814">
@@ -11051,7 +11051,7 @@
     <row r="815">
       <c r="B815" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C815">
@@ -11064,7 +11064,7 @@
     <row r="816">
       <c r="B816" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C816">
@@ -11077,7 +11077,7 @@
     <row r="817">
       <c r="B817" t="inlineStr">
         <is>
-          <t>Villa Tejúpam de la Unión</t>
+          <t>Villa Tejúpam De La Unión</t>
         </is>
       </c>
       <c r="C817">
@@ -11090,7 +11090,7 @@
     <row r="818">
       <c r="B818" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C818">
@@ -11251,7 +11251,7 @@
     <row r="830">
       <c r="B830" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C830">
@@ -11394,7 +11394,7 @@
     <row r="841">
       <c r="B841" t="inlineStr">
         <is>
-          <t>Cuayuca de Andrade</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C841">
@@ -11498,7 +11498,7 @@
     <row r="849">
       <c r="B849" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C849">
@@ -11550,7 +11550,7 @@
     <row r="853">
       <c r="B853" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C853">
@@ -11641,7 +11641,7 @@
     <row r="860">
       <c r="B860" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C860">
@@ -11654,7 +11654,7 @@
     <row r="861">
       <c r="B861" t="inlineStr">
         <is>
-          <t>Mazapiltepec de Juárez</t>
+          <t>Mazapiltepec De Juárez</t>
         </is>
       </c>
       <c r="C861">
@@ -11693,7 +11693,7 @@
     <row r="864">
       <c r="B864" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C864">
@@ -11797,7 +11797,7 @@
     <row r="872">
       <c r="B872" t="inlineStr">
         <is>
-          <t>San Nicolás de los Ranchos</t>
+          <t>San Nicolás De Los Ranchos</t>
         </is>
       </c>
       <c r="C872">
@@ -11836,7 +11836,7 @@
     <row r="875">
       <c r="B875" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C875">
@@ -11849,7 +11849,7 @@
     <row r="876">
       <c r="B876" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C876">
@@ -11914,7 +11914,7 @@
     <row r="881">
       <c r="B881" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C881">
@@ -11966,7 +11966,7 @@
     <row r="885">
       <c r="B885" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C885">
@@ -11979,7 +11979,7 @@
     <row r="886">
       <c r="B886" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C886">
@@ -12231,7 +12231,7 @@
       </c>
       <c r="B905" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C905">
@@ -12257,7 +12257,7 @@
     <row r="907">
       <c r="B907" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C907">
@@ -12270,7 +12270,7 @@
     <row r="908">
       <c r="B908" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C908">
@@ -12283,7 +12283,7 @@
     <row r="909">
       <c r="B909" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C909">
@@ -12322,7 +12322,7 @@
     <row r="912">
       <c r="B912" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C912">
@@ -12361,7 +12361,7 @@
     <row r="915">
       <c r="B915" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C915">
@@ -12449,7 +12449,7 @@
     <row r="921">
       <c r="B921" t="inlineStr">
         <is>
-          <t>Armadillo de los Infante</t>
+          <t>Armadillo De Los Infante</t>
         </is>
       </c>
       <c r="C921">
@@ -12482,13 +12482,13 @@
         <v>11</v>
       </c>
       <c r="D923">
-        <v>0.0009477856281233845</v>
+        <v>0.0009477856281233844</v>
       </c>
     </row>
     <row r="924">
       <c r="B924" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C924">
@@ -12605,7 +12605,7 @@
     <row r="933">
       <c r="B933" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C933">
@@ -12657,7 +12657,7 @@
     <row r="937">
       <c r="B937" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C937">
@@ -12748,7 +12748,7 @@
     <row r="944">
       <c r="B944" t="inlineStr">
         <is>
-          <t>Villa de Arriaga</t>
+          <t>Villa De Arriaga</t>
         </is>
       </c>
       <c r="C944">
@@ -12761,7 +12761,7 @@
     <row r="945">
       <c r="B945" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C945">
@@ -12774,7 +12774,7 @@
     <row r="946">
       <c r="B946" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C946">
@@ -13603,7 +13603,7 @@
     <row r="1009">
       <c r="B1009" t="inlineStr">
         <is>
-          <t>Nacozari de García</t>
+          <t>Nacozari De García</t>
         </is>
       </c>
       <c r="C1009">
@@ -13759,7 +13759,7 @@
     <row r="1021">
       <c r="B1021" t="inlineStr">
         <is>
-          <t>San Miguel de Horcasitas</t>
+          <t>San Miguel De Horcasitas</t>
         </is>
       </c>
       <c r="C1021">
@@ -13772,7 +13772,7 @@
     <row r="1022">
       <c r="B1022" t="inlineStr">
         <is>
-          <t>San Pedro de la Cueva</t>
+          <t>San Pedro De La Cueva</t>
         </is>
       </c>
       <c r="C1022">
@@ -14263,7 +14263,7 @@
     <row r="1059">
       <c r="B1059" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C1059">
@@ -14411,7 +14411,7 @@
     <row r="1070">
       <c r="B1070" t="inlineStr">
         <is>
-          <t>Contla de Juan Cuamatzi</t>
+          <t>Contla De Juan Cuamatzi</t>
         </is>
       </c>
       <c r="C1070">
@@ -14450,7 +14450,7 @@
     <row r="1073">
       <c r="B1073" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C1073">
@@ -14489,7 +14489,7 @@
     <row r="1076">
       <c r="B1076" t="inlineStr">
         <is>
-          <t>Papalotla de Xicohténcatl</t>
+          <t>Papalotla De Xicohténcatl</t>
         </is>
       </c>
       <c r="C1076">
@@ -14502,7 +14502,7 @@
     <row r="1077">
       <c r="B1077" t="inlineStr">
         <is>
-          <t>San Pablo del Monte</t>
+          <t>San Pablo Del Monte</t>
         </is>
       </c>
       <c r="C1077">
@@ -14676,7 +14676,7 @@
     <row r="1090">
       <c r="B1090" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C1090">
@@ -14728,7 +14728,7 @@
     <row r="1094">
       <c r="B1094" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C1094">
@@ -14754,7 +14754,7 @@
     <row r="1096">
       <c r="B1096" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C1096">
@@ -14780,7 +14780,7 @@
     <row r="1098">
       <c r="B1098" t="inlineStr">
         <is>
-          <t>Cazones de Herrera</t>
+          <t>Cazones De Herrera</t>
         </is>
       </c>
       <c r="C1098">
@@ -14865,13 +14865,13 @@
         <v>11</v>
       </c>
       <c r="D1104">
-        <v>0.0009477856281233845</v>
+        <v>0.0009477856281233844</v>
       </c>
     </row>
     <row r="1105">
       <c r="B1105" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C1105">
@@ -15027,7 +15027,7 @@
     <row r="1117">
       <c r="B1117" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C1117">
@@ -15040,7 +15040,7 @@
     <row r="1118">
       <c r="B1118" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C1118">
@@ -15183,7 +15183,7 @@
     <row r="1129">
       <c r="B1129" t="inlineStr">
         <is>
-          <t>Las Vigas de Ramírez</t>
+          <t>Las Vigas De Ramírez</t>
         </is>
       </c>
       <c r="C1129">
@@ -15196,7 +15196,7 @@
     <row r="1130">
       <c r="B1130" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C1130">
@@ -15235,7 +15235,7 @@
     <row r="1133">
       <c r="B1133" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C1133">
@@ -15417,7 +15417,7 @@
     <row r="1147">
       <c r="B1147" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C1147">
@@ -15430,7 +15430,7 @@
     <row r="1148">
       <c r="B1148" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C1148">
@@ -15456,7 +15456,7 @@
     <row r="1150">
       <c r="B1150" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C1150">
@@ -15560,7 +15560,7 @@
     <row r="1158">
       <c r="B1158" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C1158">
@@ -15586,7 +15586,7 @@
     <row r="1160">
       <c r="B1160" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C1160">
@@ -15885,7 +15885,7 @@
     <row r="1183">
       <c r="B1183" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C1183">
@@ -15950,7 +15950,7 @@
     <row r="1188">
       <c r="B1188" t="inlineStr">
         <is>
-          <t>Zozocolco de Hidalgo</t>
+          <t>Zozocolco De Hidalgo</t>
         </is>
       </c>
       <c r="C1188">
@@ -16129,7 +16129,7 @@
     <row r="1201">
       <c r="B1201" t="inlineStr">
         <is>
-          <t>Cañitas de Felipe Pescador</t>
+          <t>Cañitas De Felipe Pescador</t>
         </is>
       </c>
       <c r="C1201">
@@ -16155,7 +16155,7 @@
     <row r="1203">
       <c r="B1203" t="inlineStr">
         <is>
-          <t>Concepción del Oro</t>
+          <t>Concepción Del Oro</t>
         </is>
       </c>
       <c r="C1203">
@@ -16181,7 +16181,7 @@
     <row r="1205">
       <c r="B1205" t="inlineStr">
         <is>
-          <t>El Plateado de Joaquín Amaro</t>
+          <t>El Plateado De Joaquín Amaro</t>
         </is>
       </c>
       <c r="C1205">
@@ -16311,7 +16311,7 @@
     <row r="1215">
       <c r="B1215" t="inlineStr">
         <is>
-          <t>Jiménez del Teul</t>
+          <t>Jiménez Del Teul</t>
         </is>
       </c>
       <c r="C1215">
@@ -16389,7 +16389,7 @@
     <row r="1221">
       <c r="B1221" t="inlineStr">
         <is>
-          <t>Mezquital del Oro</t>
+          <t>Mezquital Del Oro</t>
         </is>
       </c>
       <c r="C1221">
@@ -16441,7 +16441,7 @@
     <row r="1225">
       <c r="B1225" t="inlineStr">
         <is>
-          <t>Moyahua de Estrada</t>
+          <t>Moyahua De Estrada</t>
         </is>
       </c>
       <c r="C1225">
@@ -16454,7 +16454,7 @@
     <row r="1226">
       <c r="B1226" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C1226">
@@ -16584,7 +16584,7 @@
     <row r="1236">
       <c r="B1236" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C1236">
@@ -16597,7 +16597,7 @@
     <row r="1237">
       <c r="B1237" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C1237">
@@ -16636,7 +16636,7 @@
     <row r="1240">
       <c r="B1240" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C1240">
@@ -16709,41 +16709,6 @@
       </c>
       <c r="D1245">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1247">
-      <c r="A1247" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 814,748</t>
-        </is>
-      </c>
-    </row>
-    <row r="1248">
-      <c r="A1248" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1249">
-      <c r="A1249" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1250">
-      <c r="A1250" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1251">
-      <c r="A1251" t="inlineStr">
-        <is>
-          <t>Marzo de 2017</t>
-        </is>
       </c>
     </row>
   </sheetData>
